--- a/data/Book6_us_feb_june_sex_raceandsex_fbracesex_2018-2020_08-04-2020.xlsx
+++ b/data/Book6_us_feb_june_sex_raceandsex_fbracesex_2018-2020_08-04-2020.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozd504\Documents\GitHub\unemployment\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,187 +26,146 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="42">
   <si>
-    <t xml:space="preserve">u.s., sex, race*sex, fb*race*sex, feb and june 2018-2020</t>
+    <t>u.s., sex, race*sex, fb*race*sex, feb and june 2018-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">The SAS System</t>
+    <t>The SAS System</t>
   </si>
   <si>
-    <t xml:space="preserve">Sex=Male</t>
+    <t>Sex=Male</t>
   </si>
   <si>
-    <t xml:space="preserve">Obs</t>
+    <t>Obs</t>
   </si>
   <si>
-    <t xml:space="preserve">YEAR</t>
+    <t>YEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">MONTH</t>
+    <t>MONTH</t>
   </si>
   <si>
-    <t xml:space="preserve">emp</t>
+    <t>emp</t>
   </si>
   <si>
-    <t xml:space="preserve">unemp</t>
+    <t>unemp</t>
   </si>
   <si>
-    <t xml:space="preserve">pctunemp</t>
+    <t>pctunemp</t>
   </si>
   <si>
-    <t xml:space="preserve">February</t>
+    <t>February</t>
   </si>
   <si>
-    <t xml:space="preserve">U.S.</t>
+    <t>U.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">June</t>
+    <t>June</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Asian</t>
+    <t>Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Black</t>
+    <t>Black</t>
   </si>
   <si>
-    <t xml:space="preserve">Latino</t>
+    <t>Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">White</t>
+    <t>White</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
+    <t>Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Sex=Female</t>
+    <t>Sex=Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
+    <t>Male</t>
   </si>
   <si>
-    <t xml:space="preserve">racegrp</t>
+    <t>racegrp</t>
   </si>
   <si>
-    <t xml:space="preserve">Black Female</t>
+    <t>Black Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Black Male</t>
+    <t>Black Male</t>
   </si>
   <si>
-    <t xml:space="preserve">Latina</t>
+    <t>Latina</t>
   </si>
   <si>
-    <t xml:space="preserve">Latina Female</t>
+    <t>Latina Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Latino Male</t>
+    <t>Latino Male</t>
   </si>
   <si>
-    <t xml:space="preserve">White Female</t>
+    <t>White Female</t>
   </si>
   <si>
-    <t xml:space="preserve">White Male</t>
+    <t>White Male</t>
   </si>
   <si>
-    <t xml:space="preserve">Latina Native-Born Female</t>
+    <t>Latina Native-Born Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Latino Native-Born Male</t>
+    <t>Latino Native-Born Male</t>
   </si>
   <si>
-    <t xml:space="preserve">Latina Foreign-Born Female</t>
+    <t>Latina Foreign-Born Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Latino Foreign-Born Male</t>
+    <t>Latino Foreign-Born Male</t>
   </si>
   <si>
-    <t xml:space="preserve">fb=0 Sex=Male racegrp=2</t>
+    <t>fb=0 Sex=Male racegrp=2</t>
   </si>
   <si>
-    <t xml:space="preserve">Foreign-Born</t>
+    <t>Foreign-Born</t>
   </si>
   <si>
-    <t xml:space="preserve">Native-Born</t>
+    <t>Native-Born</t>
   </si>
   <si>
-    <t xml:space="preserve">fb=0 Sex=Male racegrp=5</t>
+    <t>fb=0 Sex=Male racegrp=5</t>
   </si>
   <si>
-    <t xml:space="preserve">fb=0 Sex=Female racegrp=2</t>
+    <t>fb=0 Sex=Female racegrp=2</t>
   </si>
   <si>
-    <t xml:space="preserve">fb=0 Sex=Female racegrp=5</t>
+    <t>fb=0 Sex=Female racegrp=5</t>
   </si>
   <si>
-    <t xml:space="preserve">fb=1 Sex=Male racegrp=2</t>
+    <t>fb=1 Sex=Male racegrp=2</t>
   </si>
   <si>
-    <t xml:space="preserve">fb=1 Sex=Male racegrp=5</t>
+    <t>fb=1 Sex=Male racegrp=5</t>
   </si>
   <si>
-    <t xml:space="preserve">fb=1 Sex=Female racegrp=2</t>
+    <t>fb=1 Sex=Female racegrp=2</t>
   </si>
   <si>
-    <t xml:space="preserve">fb=1 Sex=Female racegrp=5</t>
+    <t>fb=1 Sex=Female racegrp=5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF595959"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -220,7 +183,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -228,61 +191,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -341,15 +266,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -358,7 +301,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -366,7 +309,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -377,6 +320,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -387,6 +331,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -407,28 +352,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00b050"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00b050"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -437,8 +390,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -448,9 +407,6 @@
                 <c:pt idx="0">
                   <c:v>U.S.</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>Asian</c:v>
                 </c:pt>
@@ -462,9 +418,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>White</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Female</c:v>
@@ -505,6 +458,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1994-402F-B7B5-E552AEC0B104}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -522,28 +480,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7030a0"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="7030a0"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -552,8 +518,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -563,9 +535,6 @@
                 <c:pt idx="0">
                   <c:v>U.S.</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>Asian</c:v>
                 </c:pt>
@@ -577,9 +546,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>White</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Female</c:v>
@@ -605,7 +571,7 @@
                 <c:pt idx="3">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.0">
                   <c:v>101.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -620,6 +586,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1994-402F-B7B5-E552AEC0B104}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -637,28 +608,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff0000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -667,8 +646,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -678,9 +663,6 @@
                 <c:pt idx="0">
                   <c:v>U.S.</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>Asian</c:v>
                 </c:pt>
@@ -692,9 +674,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>White</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Female</c:v>
@@ -735,7 +714,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1994-402F-B7B5-E552AEC0B104}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="26523056"/>
@@ -755,7 +747,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -765,13 +757,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="36784645"/>
@@ -793,7 +786,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -806,7 +799,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -814,7 +807,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -825,6 +818,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -847,13 +841,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26523056"/>
@@ -869,6 +864,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -881,37 +877,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -920,7 +925,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -928,7 +933,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -939,6 +944,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -949,6 +955,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -969,28 +976,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00b050"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00b050"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -999,8 +1014,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
@@ -1089,7 +1110,7 @@
                 <c:pt idx="6">
                   <c:v>101.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.0">
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -1101,6 +1122,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A96-46D0-8242-CD8529FE27D6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1118,28 +1144,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7030a0"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="7030a0"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1148,8 +1182,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
@@ -1241,7 +1281,7 @@
                 <c:pt idx="7">
                   <c:v>101.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.0">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="10">
@@ -1250,6 +1290,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A96-46D0-8242-CD8529FE27D6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1267,28 +1312,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff0000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1297,8 +1350,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
@@ -1399,7 +1458,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A96-46D0-8242-CD8529FE27D6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="54401252"/>
@@ -1419,7 +1491,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1429,13 +1501,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91101841"/>
@@ -1456,7 +1529,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1469,7 +1542,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1477,7 +1550,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1488,6 +1561,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1510,13 +1584,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="54401252"/>
@@ -1532,6 +1607,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1544,40 +1620,50 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1587,11 +1673,11 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff0000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1599,47 +1685,60 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="ff0000"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BE54-46D0-801C-E51ECC76E942}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="ff0000"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BE54-46D0-801C-E51ECC76E942}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
                       <a:latin typeface="Times New Roman"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1648,22 +1747,31 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BE54-46D0-801C-E51ECC76E942}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
                       <a:latin typeface="Times New Roman"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1672,20 +1780,35 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BE54-46D0-801C-E51ECC76E942}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1694,8 +1817,15 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1705,9 +1835,6 @@
                 <c:pt idx="0">
                   <c:v>U.S.</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>Black</c:v>
                 </c:pt>
@@ -1716,9 +1843,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>White</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Female</c:v>
@@ -1738,6 +1862,9 @@
                 <c:pt idx="0">
                   <c:v>9.5</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>11.5</c:v>
                 </c:pt>
@@ -1747,16 +1874,32 @@
                 <c:pt idx="4">
                   <c:v>7.5</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>11.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.90000000000001</c:v>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>7.9000000000000101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BE54-46D0-801C-E51ECC76E942}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="96899395"/>
@@ -1776,7 +1919,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1786,13 +1929,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92763743"/>
@@ -1813,7 +1957,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1826,7 +1970,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1834,7 +1978,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1846,6 +1990,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1868,13 +2013,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96899395"/>
@@ -1890,28 +2036,37 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1921,11 +2076,11 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff0000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1933,47 +2088,60 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="ff0000"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5FBC-4675-A0C8-8E4BC092981B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="ff0000"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5FBC-4675-A0C8-8E4BC092981B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
                       <a:latin typeface="Times New Roman"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1982,22 +2150,31 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5FBC-4675-A0C8-8E4BC092981B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
                       <a:latin typeface="Times New Roman"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -2006,20 +2183,35 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5FBC-4675-A0C8-8E4BC092981B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2028,8 +2220,15 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2042,17 +2241,11 @@
                 <c:pt idx="1">
                   <c:v>Black Male</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>Latina Female</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Latino Male</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>White Female</c:v>
@@ -2070,27 +2263,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13.4</c:v>
+                  <c:v>13.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2</c:v>
+                  <c:v>9.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.7</c:v>
+                  <c:v>13.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.2</c:v>
+                  <c:v>11.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.90000000000001</c:v>
+                  <c:v>9.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>5.9000000000000057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5FBC-4675-A0C8-8E4BC092981B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="47732361"/>
@@ -2110,7 +2322,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2120,13 +2332,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="37423899"/>
@@ -2147,7 +2360,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2160,7 +2373,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2168,7 +2381,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2184,8 +2397,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0407258064516129"/>
-              <c:y val="0.171108876037214"/>
+              <c:x val="3.2659909137483539E-2"/>
+              <c:y val="0.25173240950251891"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2210,13 +2423,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="47732361"/>
@@ -2232,25 +2446,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2259,7 +2481,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2267,7 +2489,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2278,6 +2500,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2288,6 +2511,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2297,29 +2521,36 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff0000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2328,8 +2559,15 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2341,9 +2579,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Latino Native-Born Male</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Latina Foreign-Born Female</c:v>
@@ -2367,7 +2602,7 @@
                   <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.1</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>15.8</c:v>
@@ -2375,7 +2610,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F319-42E6-8E74-83B8D065A306}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="79515492"/>
@@ -2395,7 +2643,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2405,13 +2653,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="70773343"/>
@@ -2432,7 +2681,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2445,7 +2694,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2453,7 +2702,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2464,6 +2713,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2486,13 +2736,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="79515492"/>
@@ -2508,23 +2759,29 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -2538,14 +2795,14 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10168920" y="806760"/>
-        <a:ext cx="4295520" cy="2748240"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2568,14 +2825,14 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9643680" y="5901480"/>
-        <a:ext cx="4284720" cy="2747880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2598,14 +2855,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 5"/>
+        <xdr:cNvPr id="4" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18240120" y="356760"/>
-        <a:ext cx="4284720" cy="2738160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2619,23 +2876,23 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>38880</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 6"/>
+        <xdr:cNvPr id="5" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17840160" y="4903200"/>
-        <a:ext cx="4463640" cy="2863080"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2658,14 +2915,14 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 7"/>
+        <xdr:cNvPr id="6" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18065520" y="8912520"/>
-        <a:ext cx="4284720" cy="2748240"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2678,137 +2935,395 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC45" activeCellId="0" sqref="AC45"/>
+    <sheetView tabSelected="1" topLeftCell="V25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.69"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="26" max="26" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>2018</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>2019</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>2020</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>2018</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>82170930.84</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9">
+        <v>82170930.840000004</v>
+      </c>
+      <c r="E9">
         <v>4016951.68</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>4.6607</v>
+      <c r="F9">
+        <v>4.6607000000000003</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>101.4</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>100.8</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>90.5</v>
       </c>
-      <c r="O9" s="0" t="n">
-        <f aca="false">100-M9</f>
+      <c r="O9">
+        <f>100-M9</f>
         <v>9.5</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z9" s="1" t="n">
+      <c r="Z9" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>2018</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>83636807.93</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10">
+        <v>83636807.930000007</v>
+      </c>
+      <c r="E10">
         <v>3703520.43</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>4.2403</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">D10/D9*100</f>
-        <v>101.78393633249</v>
-      </c>
-      <c r="O10" s="0" t="s">
+      <c r="F10">
+        <v>4.2403000000000004</v>
+      </c>
+      <c r="G10" s="2">
+        <f>D10/D9*100</f>
+        <v>101.78393633249001</v>
+      </c>
+      <c r="O10" t="s">
         <v>12</v>
       </c>
       <c r="Y10" s="1"/>
@@ -2816,183 +3331,183 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>2019</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>82901495.26</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="D11">
+        <v>82901495.260000005</v>
+      </c>
+      <c r="E11">
         <v>3864362.75</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>4.4538</v>
+      <c r="F11">
+        <v>4.4538000000000002</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>102.1</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>101.8</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11">
         <v>85.4</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <f aca="false">100-M11</f>
-        <v>14.6</v>
+      <c r="O11">
+        <f>100-M11</f>
+        <v>14.599999999999994</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="1" t="n">
+      <c r="Z11" s="1">
         <v>11.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>2019</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>84278931.73</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12">
+        <v>84278931.730000004</v>
+      </c>
+      <c r="E12">
         <v>3310773.73</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>3.7799</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">D12/D11*100</f>
-        <v>101.661533927319</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="G12" s="2">
+        <f>D12/D11*100</f>
+        <v>101.66153392731943</v>
+      </c>
+      <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>101.1</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>101</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12">
         <v>88.5</v>
       </c>
-      <c r="O12" s="0" t="n">
-        <f aca="false">100-M12</f>
+      <c r="O12">
+        <f>100-M12</f>
         <v>11.5</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z12" s="1" t="n">
+      <c r="Z12" s="1">
         <v>12.3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>2020</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>83211951.4</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13">
+        <v>83211951.400000006</v>
+      </c>
+      <c r="E13">
         <v>3675370.1</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>4.23</v>
+      <c r="F13">
+        <v>4.2300000000000004</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>101.7</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="2">
         <v>101.6</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>87.7</v>
       </c>
-      <c r="O13" s="0" t="n">
-        <f aca="false">100-M13</f>
-        <v>12.3</v>
+      <c r="O13">
+        <f>100-M13</f>
+        <v>12.299999999999997</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Z13" s="1" t="n">
+      <c r="Z13" s="1">
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>2020</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>76628015.22</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>9039272.96</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>10.5516</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <f aca="false">D14/D13*100</f>
-        <v>92.0877517361046</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <f aca="false">(D14-D13)/D13*100</f>
-        <v>-7.91224826389543</v>
-      </c>
-      <c r="J14" s="0" t="s">
+      <c r="D14">
+        <v>76628015.219999999</v>
+      </c>
+      <c r="E14">
+        <v>9039272.9600000009</v>
+      </c>
+      <c r="F14">
+        <v>10.551600000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <f>D14/D13*100</f>
+        <v>92.087751736104579</v>
+      </c>
+      <c r="H14" s="3">
+        <f>(D14-D13)/D13*100</f>
+        <v>-7.9122482638954272</v>
+      </c>
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>101.1</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14">
         <v>100.4</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14">
         <v>92.5</v>
       </c>
-      <c r="O14" s="0" t="n">
-        <f aca="false">100-M14</f>
+      <c r="O14">
+        <f>100-M14</f>
         <v>7.5</v>
       </c>
       <c r="Y14" s="1"/>
@@ -3000,653 +3515,653 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O15" s="0" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
         <v>12</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z15" s="1" t="n">
+      <c r="Z15" s="1">
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>100.9</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16">
         <v>99.9</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16">
         <v>88.8</v>
       </c>
-      <c r="O16" s="0" t="n">
-        <f aca="false">100-M16</f>
-        <v>11.2</v>
+      <c r="O16">
+        <f>100-M16</f>
+        <v>11.200000000000003</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z16" s="4" t="n">
-        <v>7.90000000000001</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0" t="s">
+      <c r="Z16" s="4">
+        <v>7.9000000000000101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>101.8</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>101.7</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>92.1</v>
       </c>
-      <c r="O17" s="0" t="n">
-        <f aca="false">100-M17</f>
-        <v>7.90000000000001</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="O17">
+        <f>100-M17</f>
+        <v>7.9000000000000057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="O18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>7</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>2018</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>73065313.8</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="D19">
+        <v>73065313.799999997</v>
+      </c>
+      <c r="E19">
         <v>3179618.32</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>4.1703</v>
-      </c>
-      <c r="O19" s="0" t="s">
+      <c r="F19">
+        <v>4.1703000000000001</v>
+      </c>
+      <c r="O19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>8</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>2018</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>73712639.04</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20">
+        <v>73712639.040000007</v>
+      </c>
+      <c r="E20">
         <v>3343569.52</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>4.3391</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <f aca="false">D20/D19*100</f>
-        <v>100.885954232362</v>
-      </c>
-      <c r="O20" s="0" t="s">
+      <c r="F20">
+        <v>4.3391000000000002</v>
+      </c>
+      <c r="G20" s="2">
+        <f>D20/D19*100</f>
+        <v>100.88595423236247</v>
+      </c>
+      <c r="O20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>2019</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>74224780.11</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="D21">
+        <v>74224780.109999999</v>
+      </c>
+      <c r="E21">
         <v>2953548.9</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>3.8269</v>
+      <c r="F21">
+        <v>3.8269000000000002</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>101.1</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21">
         <v>100.4</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21">
         <v>92.5</v>
       </c>
-      <c r="O21" s="0" t="n">
-        <f aca="false">100-M21</f>
+      <c r="O21">
+        <f>100-M21</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>2019</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>74150594.87</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22">
+        <v>74150594.870000005</v>
+      </c>
+      <c r="E22">
         <v>3162851.37</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>4.0909</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <f aca="false">D22/D21*100</f>
-        <v>99.9000532707675</v>
-      </c>
-      <c r="J22" s="0" t="s">
+      <c r="F22">
+        <v>4.0909000000000004</v>
+      </c>
+      <c r="G22" s="2">
+        <f>D22/D21*100</f>
+        <v>99.900053270767458</v>
+      </c>
+      <c r="J22" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>101.7</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22">
         <v>101.6</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22">
         <v>87.7</v>
       </c>
-      <c r="O22" s="0" t="n">
-        <f aca="false">100-M22</f>
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="O22">
+        <f>100-M22</f>
+        <v>12.299999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>2020</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>75190707.36</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23">
+        <v>75190707.359999999</v>
+      </c>
+      <c r="E23">
         <v>2701113.31</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>3.4678</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23">
         <v>101.1</v>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="L23" s="2">
         <v>101</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23">
         <v>88.5</v>
       </c>
-      <c r="O23" s="0" t="n">
-        <f aca="false">100-M23</f>
+      <c r="O23">
+        <f>100-M23</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>2020</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>66749046.01</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>9123244.81</v>
-      </c>
-      <c r="F24" s="0" t="n">
+      <c r="D24">
+        <v>66749046.009999998</v>
+      </c>
+      <c r="E24">
+        <v>9123244.8100000005</v>
+      </c>
+      <c r="F24">
         <v>12.0245</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <f aca="false">D24/D23*100</f>
-        <v>88.7729991558893</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <f aca="false">(D24-D23)/D23*100</f>
-        <v>-11.2270008441107</v>
-      </c>
-      <c r="J24" s="0" t="s">
+      <c r="G24" s="2">
+        <f>D24/D23*100</f>
+        <v>88.772999155889309</v>
+      </c>
+      <c r="H24" s="2">
+        <f>(D24-D23)/D23*100</f>
+        <v>-11.227000844110693</v>
+      </c>
+      <c r="J24" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24">
         <v>102.1</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24">
         <v>101.8</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24">
         <v>85.4</v>
       </c>
-      <c r="O24" s="0" t="n">
-        <f aca="false">100-M24</f>
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="O24">
+        <f>100-M24</f>
+        <v>14.599999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>2018</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>51595645.8</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>2250526.2</v>
-      </c>
-      <c r="G34" s="0" t="n">
+      <c r="E34">
+        <v>51595645.799999997</v>
+      </c>
+      <c r="F34">
+        <v>2250526.2000000002</v>
+      </c>
+      <c r="G34">
         <v>4.1795</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>2018</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>52577283.93</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>1980889.63</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <v>3.6308</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <f aca="false">E35/E34*100</f>
-        <v>101.902560021838</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="G35">
+        <v>3.6307999999999998</v>
+      </c>
+      <c r="H35" s="2">
+        <f>E35/E34*100</f>
+        <v>101.90256002183813</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>2019</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>51775985.39</v>
-      </c>
-      <c r="F36" s="0" t="n">
+      <c r="E36">
+        <v>51775985.390000001</v>
+      </c>
+      <c r="F36">
         <v>2020482.01</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>3.7558</v>
+      <c r="G36">
+        <v>3.7557999999999998</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M36">
         <v>2018</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="N36">
         <v>2019</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="O36">
         <v>2020</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>2019</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>52663096.12</v>
-      </c>
-      <c r="F37" s="0" t="n">
+      <c r="E37">
+        <v>52663096.119999997</v>
+      </c>
+      <c r="F37">
         <v>1742136.99</v>
       </c>
-      <c r="G37" s="0" t="n">
-        <v>3.2021</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <f aca="false">E37/E36*100</f>
-        <v>101.713363296358</v>
-      </c>
-      <c r="K37" s="0" t="s">
+      <c r="G37">
+        <v>3.2021000000000002</v>
+      </c>
+      <c r="H37" s="2">
+        <f>E37/E36*100</f>
+        <v>101.71336329635811</v>
+      </c>
+      <c r="K37" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" t="s">
         <v>13</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="M37">
         <v>102.8</v>
       </c>
-      <c r="N37" s="0" t="n">
+      <c r="N37">
         <v>102.3</v>
       </c>
-      <c r="O37" s="0" t="n">
+      <c r="O37">
         <v>85.1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>2020</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>51589837.33</v>
-      </c>
-      <c r="F38" s="0" t="n">
+      <c r="E38">
+        <v>51589837.329999998</v>
+      </c>
+      <c r="F38">
         <v>1940823.76</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <v>3.6256</v>
+      <c r="G38">
+        <v>3.6255999999999999</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" t="s">
         <v>13</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="M38">
         <v>101.4</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="N38">
         <v>101.3</v>
       </c>
-      <c r="O38" s="0" t="n">
+      <c r="O38">
         <v>85.7</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>2020</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="0" t="n">
-        <v>48541446.72</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>4465946.56</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>8.4251</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <f aca="false">E39/E38*100</f>
-        <v>94.091102496601</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <f aca="false">(E39-E38)/E38*100</f>
-        <v>-5.90889750339905</v>
-      </c>
-      <c r="K39" s="0" t="s">
+      <c r="E39">
+        <v>48541446.719999999</v>
+      </c>
+      <c r="F39">
+        <v>4465946.5599999996</v>
+      </c>
+      <c r="G39">
+        <v>8.4251000000000005</v>
+      </c>
+      <c r="H39" s="2">
+        <f>E39/E38*100</f>
+        <v>94.091102496600953</v>
+      </c>
+      <c r="I39" s="2">
+        <f>(E39-E38)/E38*100</f>
+        <v>-5.9088975033990474</v>
+      </c>
+      <c r="K39" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>7</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>2018</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>15287861.26</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>813355.2</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>5.0515</v>
+      <c r="G40">
+        <v>5.0514999999999999</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="K40" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="0" t="n">
+      <c r="M40">
         <v>101.4</v>
       </c>
-      <c r="N40" s="0" t="n">
+      <c r="N40">
         <v>100.8</v>
       </c>
-      <c r="O40" s="0" t="n">
+      <c r="O40">
         <v>86.6</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA40" s="1" t="n">
-        <f aca="false">100-O40</f>
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="AA40" s="1">
+        <f>100-O40</f>
+        <v>13.400000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>2018</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>15592730.06</v>
-      </c>
-      <c r="F41" s="0" t="n">
+      <c r="E41">
+        <v>15592730.060000001</v>
+      </c>
+      <c r="F41">
         <v>693291.55</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <v>4.257</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <f aca="false">E41/E40*100</f>
-        <v>101.994188688758</v>
-      </c>
-      <c r="K41" s="0" t="s">
+      <c r="G41">
+        <v>4.2569999999999997</v>
+      </c>
+      <c r="H41" s="2">
+        <f>E41/E40*100</f>
+        <v>101.99418868875843</v>
+      </c>
+      <c r="K41" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="0" t="n">
+      <c r="M41">
         <v>100.8</v>
       </c>
-      <c r="N41" s="0" t="n">
+      <c r="N41">
         <v>101.2</v>
       </c>
-      <c r="O41" s="0" t="n">
+      <c r="O41">
         <v>90.8</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA41" s="1" t="n">
-        <f aca="false">100-O41</f>
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="AA41" s="1">
+        <f>100-O41</f>
+        <v>9.2000000000000028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>9</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>2019</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>15622444</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42">
         <v>801181.59</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <v>4.8782</v>
+      <c r="G42">
+        <v>4.8781999999999996</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>12</v>
@@ -3656,425 +4171,425 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>10</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>2019</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>15852053.16</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43">
         <v>647232.73</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <v>3.9228</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <f aca="false">E43/E42*100</f>
-        <v>101.469739049793</v>
-      </c>
-      <c r="K43" s="0" t="s">
+      <c r="G43">
+        <v>3.9228000000000001</v>
+      </c>
+      <c r="H43" s="2">
+        <f>E43/E42*100</f>
+        <v>101.46973904979274</v>
+      </c>
+      <c r="K43" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" t="s">
         <v>23</v>
       </c>
-      <c r="M43" s="0" t="n">
+      <c r="M43">
         <v>101.2</v>
       </c>
-      <c r="N43" s="0" t="n">
+      <c r="N43">
         <v>101.8</v>
       </c>
-      <c r="O43" s="0" t="n">
+      <c r="O43">
         <v>86.3</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA43" s="1" t="n">
-        <f aca="false">100-O43</f>
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="AA43" s="1">
+        <f>100-O43</f>
+        <v>13.700000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>11</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>2020</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>15917072.4</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>747860.32</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>4.4876</v>
+      <c r="G44">
+        <v>4.4875999999999996</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="K44" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="2" t="n">
+      <c r="M44" s="2">
         <v>102</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="N44">
         <v>101.5</v>
       </c>
-      <c r="O44" s="0" t="n">
+      <c r="O44">
         <v>88.8</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA44" s="1" t="n">
-        <f aca="false">100-O44</f>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="AA44" s="1">
+        <f>100-O44</f>
+        <v>11.200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>12</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>2020</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>14138373.41</v>
       </c>
-      <c r="F45" s="0" t="n">
-        <v>2170497.55</v>
-      </c>
-      <c r="G45" s="0" t="n">
+      <c r="F45">
+        <v>2170497.5499999998</v>
+      </c>
+      <c r="G45">
         <v>13.3087</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <f aca="false">E45/E44*100</f>
-        <v>88.8252126691338</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <f aca="false">(E45-E44)/E44*100</f>
-        <v>-11.1747873308662</v>
+      <c r="H45" s="2">
+        <f>E45/E44*100</f>
+        <v>88.825212669133805</v>
+      </c>
+      <c r="I45" s="2">
+        <f>(E45-E44)/E44*100</f>
+        <v>-11.174787330866197</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>13</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>3</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>2018</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>8447415.8</v>
-      </c>
-      <c r="F46" s="0" t="n">
+      <c r="E46">
+        <v>8447415.8000000007</v>
+      </c>
+      <c r="F46">
         <v>681177.52</v>
       </c>
-      <c r="G46" s="0" t="n">
-        <v>7.462</v>
+      <c r="G46">
+        <v>7.4619999999999997</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" t="s">
         <v>17</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" t="s">
         <v>16</v>
       </c>
-      <c r="M46" s="0" t="n">
+      <c r="M46">
         <v>100.3</v>
       </c>
-      <c r="N46" s="2" t="n">
+      <c r="N46" s="2">
         <v>99</v>
       </c>
-      <c r="O46" s="0" t="n">
+      <c r="O46">
         <v>90.2</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA46" s="1" t="n">
-        <f aca="false">100-O46</f>
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="AA46" s="1">
+        <f>100-O46</f>
+        <v>9.7999999999999972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>14</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>2018</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>8511726.22</v>
-      </c>
-      <c r="F47" s="0" t="n">
+      <c r="E47">
+        <v>8511726.2200000007</v>
+      </c>
+      <c r="F47">
         <v>690592.33</v>
       </c>
-      <c r="G47" s="0" t="n">
-        <v>7.5045</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <f aca="false">E47/E46*100</f>
-        <v>100.761302882711</v>
-      </c>
-      <c r="K47" s="0" t="s">
+      <c r="G47">
+        <v>7.5045000000000002</v>
+      </c>
+      <c r="H47" s="2">
+        <f>E47/E46*100</f>
+        <v>100.76130288271119</v>
+      </c>
+      <c r="K47" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="0" t="n">
+      <c r="M47">
         <v>101.9</v>
       </c>
-      <c r="N47" s="0" t="n">
+      <c r="N47">
         <v>101.7</v>
       </c>
-      <c r="O47" s="0" t="n">
+      <c r="O47">
         <v>94.1</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA47" s="4" t="n">
-        <f aca="false">100-O47</f>
-        <v>5.90000000000001</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="AA47" s="4">
+        <f>100-O47</f>
+        <v>5.9000000000000057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>15</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>2019</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>8406150.87</v>
-      </c>
-      <c r="F48" s="0" t="n">
+      <c r="E48">
+        <v>8406150.8699999992</v>
+      </c>
+      <c r="F48">
         <v>788871.12</v>
       </c>
-      <c r="G48" s="0" t="n">
-        <v>8.5793</v>
+      <c r="G48">
+        <v>8.5792999999999999</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>16</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>3</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>2019</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>8509367.73</v>
-      </c>
-      <c r="F49" s="0" t="n">
+      <c r="E49">
+        <v>8509367.7300000004</v>
+      </c>
+      <c r="F49">
         <v>590519.47</v>
       </c>
-      <c r="G49" s="0" t="n">
-        <v>6.4893</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <f aca="false">E49/E48*100</f>
-        <v>101.227873037211</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="G49">
+        <v>6.4893000000000001</v>
+      </c>
+      <c r="H49" s="2">
+        <f>E49/E48*100</f>
+        <v>101.22787303721093</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>17</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>2020</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="0" t="n">
-        <v>8373037.07</v>
-      </c>
-      <c r="F50" s="0" t="n">
+      <c r="E50">
+        <v>8373037.0700000003</v>
+      </c>
+      <c r="F50">
         <v>684815.8</v>
       </c>
-      <c r="G50" s="0" t="n">
-        <v>7.5605</v>
+      <c r="G50">
+        <v>7.5605000000000002</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>18</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>3</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>2020</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
-        <v>7599338.62</v>
-      </c>
-      <c r="F51" s="0" t="n">
+      <c r="E51">
+        <v>7599338.6200000001</v>
+      </c>
+      <c r="F51">
         <v>1410974.88</v>
       </c>
-      <c r="G51" s="0" t="n">
-        <v>15.6596</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <f aca="false">E51/E50*100</f>
-        <v>90.759643800311</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <f aca="false">(E51-E50)/E50*100</f>
-        <v>-9.24035619968896</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="G51">
+        <v>15.659599999999999</v>
+      </c>
+      <c r="H51" s="2">
+        <f>E51/E50*100</f>
+        <v>90.759643800311039</v>
+      </c>
+      <c r="I51" s="2">
+        <f>(E51-E50)/E50*100</f>
+        <v>-9.2403561996889643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>19</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>5</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>2018</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>4949429.67</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>135839.58</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>2.6712</v>
+      <c r="F52">
+        <v>135839.57999999999</v>
+      </c>
+      <c r="G52">
+        <v>2.6711999999999998</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>20</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>2018</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5020137.58</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53">
         <v>185800.27</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53">
         <v>3.569</v>
       </c>
-      <c r="H53" s="2" t="n">
-        <f aca="false">E53/E52*100</f>
-        <v>101.42860722779</v>
+      <c r="H53" s="2">
+        <f>E53/E52*100</f>
+        <v>101.42860722778994</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA53" s="1" t="n">
+      <c r="AA53" s="1">
         <v>9.9</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>21</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>5</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>2019</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>5152691.86</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>145977.2</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>2.755</v>
+      <c r="E54">
+        <v>5152691.8600000003</v>
+      </c>
+      <c r="F54">
+        <v>145977.20000000001</v>
+      </c>
+      <c r="G54">
+        <v>2.7549999999999999</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>12</v>
@@ -4082,60 +4597,60 @@
       <c r="Z54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA54" s="1" t="n">
+      <c r="AA54" s="1">
         <v>6.6</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>22</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>2019</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="0" t="n">
-        <v>5220660.52</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>134230.95</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>2.5067</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <f aca="false">E55/E54*100</f>
-        <v>101.319090328836</v>
+      <c r="E55">
+        <v>5220660.5199999996</v>
+      </c>
+      <c r="F55">
+        <v>134230.95000000001</v>
+      </c>
+      <c r="G55">
+        <v>2.5066999999999999</v>
+      </c>
+      <c r="H55" s="2">
+        <f>E55/E54*100</f>
+        <v>101.31909032883637</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>23</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>2020</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>5307181.34</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56">
         <v>124547.87</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <v>2.293</v>
+      <c r="G56">
+        <v>2.2930000000000001</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>12</v>
@@ -4143,2307 +4658,2302 @@
       <c r="Z56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA56" s="1" t="n">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="AA56" s="1">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>24</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>5</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>2020</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>4550278.2</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57">
         <v>665644.29</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>12.7618</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <f aca="false">E57/E56*100</f>
-        <v>85.7381330783772</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <f aca="false">(E57-E56)/E56*100</f>
-        <v>-14.2618669216228</v>
+      <c r="G57">
+        <v>12.761799999999999</v>
+      </c>
+      <c r="H57" s="2">
+        <f>E57/E56*100</f>
+        <v>85.73813307837716</v>
+      </c>
+      <c r="I57" s="2">
+        <f>(E57-E56)/E56*100</f>
+        <v>-14.261866921622838</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA57" s="1" t="n">
+      <c r="AA57" s="1">
         <v>15.8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>25</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>2018</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>45789672.25</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62">
         <v>1481075.8</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62">
         <v>3.1332</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>26</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>2018</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>45909990.6</v>
-      </c>
-      <c r="F63" s="0" t="n">
+      <c r="E63">
+        <v>45909990.600000001</v>
+      </c>
+      <c r="F63">
         <v>1717989.42</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63">
         <v>3.6071</v>
       </c>
-      <c r="H63" s="2" t="n">
-        <f aca="false">E63/E62*100</f>
-        <v>100.262763073173</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="H63" s="2">
+        <f>E63/E62*100</f>
+        <v>100.26276307317312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>27</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>2019</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="0" t="n">
-        <v>46133036.01</v>
-      </c>
-      <c r="F64" s="0" t="n">
+      <c r="E64">
+        <v>46133036.009999998</v>
+      </c>
+      <c r="F64">
         <v>1387879.08</v>
       </c>
-      <c r="G64" s="0" t="n">
-        <v>2.9206</v>
+      <c r="G64">
+        <v>2.9205999999999999</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>28</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>2019</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="0" t="n">
-        <v>45652364.69</v>
-      </c>
-      <c r="F65" s="0" t="n">
+      <c r="E65">
+        <v>45652364.689999998</v>
+      </c>
+      <c r="F65">
         <v>1669724.14</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65">
         <v>3.5284</v>
       </c>
-      <c r="H65" s="2" t="n">
-        <f aca="false">E65/E64*100</f>
-        <v>98.9580756837772</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="H65" s="2">
+        <f>E65/E64*100</f>
+        <v>98.958075683777224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>29</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>2020</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="0" t="n">
-        <v>46289605.65</v>
-      </c>
-      <c r="F66" s="0" t="n">
+      <c r="E66">
+        <v>46289605.649999999</v>
+      </c>
+      <c r="F66">
         <v>1199680.07</v>
       </c>
-      <c r="G66" s="0" t="n">
-        <v>2.5262</v>
+      <c r="G66">
+        <v>2.5261999999999998</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>30</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>2020</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="0" t="n">
-        <v>41755166.79</v>
-      </c>
-      <c r="F67" s="0" t="n">
+      <c r="E67">
+        <v>41755166.789999999</v>
+      </c>
+      <c r="F67">
         <v>4707528.37</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67">
         <v>10.1318</v>
       </c>
-      <c r="H67" s="2" t="n">
-        <f aca="false">E67/E66*100</f>
-        <v>90.2041963928462</v>
-      </c>
-      <c r="I67" s="2" t="n">
-        <f aca="false">(E67-E66)/E66*100</f>
-        <v>-9.79580360715387</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="H67" s="2">
+        <f>E67/E66*100</f>
+        <v>90.204196392846143</v>
+      </c>
+      <c r="I67" s="2">
+        <f>(E67-E66)/E66*100</f>
+        <v>-9.7958036071538661</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>31</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>2</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>2018</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>11603202.58</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68">
         <v>710546.34</v>
       </c>
-      <c r="G68" s="0" t="n">
-        <v>5.7703</v>
+      <c r="G68">
+        <v>5.7702999999999998</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>32</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>2</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>2018</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>11748166.74</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69">
         <v>677060.05</v>
       </c>
-      <c r="G69" s="0" t="n">
-        <v>5.4491</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <f aca="false">E69/E68*100</f>
-        <v>101.249346109408</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="G69">
+        <v>5.4490999999999996</v>
+      </c>
+      <c r="H69" s="2">
+        <f>E69/E68*100</f>
+        <v>101.24934610940836</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>33</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>2019</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="0" t="n">
-        <v>11861929.13</v>
-      </c>
-      <c r="F70" s="0" t="n">
+      <c r="E70">
+        <v>11861929.130000001</v>
+      </c>
+      <c r="F70">
         <v>593906.86</v>
       </c>
-      <c r="G70" s="0" t="n">
-        <v>4.7681</v>
+      <c r="G70">
+        <v>4.7680999999999996</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>34</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>2</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>2019</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="0" t="n">
-        <v>12069725.03</v>
-      </c>
-      <c r="F71" s="0" t="n">
+      <c r="E71">
+        <v>12069725.029999999</v>
+      </c>
+      <c r="F71">
         <v>642600.75</v>
       </c>
-      <c r="G71" s="0" t="n">
-        <v>5.0549</v>
-      </c>
-      <c r="H71" s="2" t="n">
-        <f aca="false">E71/E70*100</f>
-        <v>101.751788412514</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="G71">
+        <v>5.0548999999999999</v>
+      </c>
+      <c r="H71" s="2">
+        <f>E71/E70*100</f>
+        <v>101.75178841251432</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>35</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>2</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>2020</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="0" t="n">
-        <v>12374715.28</v>
-      </c>
-      <c r="F72" s="0" t="n">
+      <c r="E72">
+        <v>12374715.279999999</v>
+      </c>
+      <c r="F72">
         <v>701206.67</v>
       </c>
-      <c r="G72" s="0" t="n">
-        <v>5.3626</v>
+      <c r="G72">
+        <v>5.3625999999999996</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>36</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>2020</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="0" t="n">
-        <v>10678643.05</v>
-      </c>
-      <c r="F73" s="0" t="n">
+      <c r="E73">
+        <v>10678643.050000001</v>
+      </c>
+      <c r="F73">
         <v>2078580.66</v>
       </c>
-      <c r="G73" s="0" t="n">
-        <v>16.2934</v>
-      </c>
-      <c r="H73" s="2" t="n">
-        <f aca="false">E73/E72*100</f>
-        <v>86.2940504761254</v>
-      </c>
-      <c r="I73" s="2" t="n">
-        <f aca="false">(E73-E72)/E72*100</f>
-        <v>-13.7059495238746</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="G73">
+        <v>16.293399999999998</v>
+      </c>
+      <c r="H73" s="2">
+        <f>E73/E72*100</f>
+        <v>86.294050476125392</v>
+      </c>
+      <c r="I73" s="2">
+        <f>(E73-E72)/E72*100</f>
+        <v>-13.705949523874612</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>37</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>2018</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="0" t="n">
-        <v>9416417.62</v>
-      </c>
-      <c r="F74" s="0" t="n">
+      <c r="E74">
+        <v>9416417.6199999992</v>
+      </c>
+      <c r="F74">
         <v>711832.18</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74">
         <v>7.0282</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>38</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>3</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>2018</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="0" t="n">
-        <v>9547306.48</v>
-      </c>
-      <c r="F75" s="0" t="n">
+      <c r="E75">
+        <v>9547306.4800000004</v>
+      </c>
+      <c r="F75">
         <v>629333.4</v>
       </c>
-      <c r="G75" s="0" t="n">
-        <v>6.1841</v>
-      </c>
-      <c r="H75" s="2" t="n">
-        <f aca="false">E75/E74*100</f>
-        <v>101.390006956807</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="G75">
+        <v>6.1840999999999999</v>
+      </c>
+      <c r="H75" s="2">
+        <f>E75/E74*100</f>
+        <v>101.39000695680703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>39</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>3</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>2019</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="0" t="n">
-        <v>9587436.42</v>
-      </c>
-      <c r="F76" s="0" t="n">
+      <c r="E76">
+        <v>9587436.4199999999</v>
+      </c>
+      <c r="F76">
         <v>655143.48</v>
       </c>
-      <c r="G76" s="0" t="n">
-        <v>6.3963</v>
+      <c r="G76">
+        <v>6.3963000000000001</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>40</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>2019</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="0" t="n">
-        <v>9661580.83</v>
-      </c>
-      <c r="F77" s="0" t="n">
+      <c r="E77">
+        <v>9661580.8300000001</v>
+      </c>
+      <c r="F77">
         <v>618007.5</v>
       </c>
-      <c r="G77" s="0" t="n">
-        <v>6.012</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <f aca="false">E77/E76*100</f>
-        <v>100.773349691742</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="G77">
+        <v>6.0119999999999996</v>
+      </c>
+      <c r="H77" s="2">
+        <f>E77/E76*100</f>
+        <v>100.77334969174167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>41</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>3</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>2020</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="0" t="n">
-        <v>9746648.61</v>
-      </c>
-      <c r="F78" s="0" t="n">
+      <c r="E78">
+        <v>9746648.6099999994</v>
+      </c>
+      <c r="F78">
         <v>553843.73</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="G78">
         <v>5.3769</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>42</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>2020</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="0" t="n">
-        <v>8439088.45</v>
-      </c>
-      <c r="F79" s="0" t="n">
+      <c r="E79">
+        <v>8439088.4499999993</v>
+      </c>
+      <c r="F79">
         <v>1392698.95</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79">
         <v>14.1653</v>
       </c>
-      <c r="H79" s="2" t="n">
-        <f aca="false">E79/E78*100</f>
-        <v>86.5845152285633</v>
-      </c>
-      <c r="I79" s="2" t="n">
-        <f aca="false">(E79-E78)/E78*100</f>
-        <v>-13.4154847714367</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="H79" s="2">
+        <f>E79/E78*100</f>
+        <v>86.584515228563262</v>
+      </c>
+      <c r="I79" s="2">
+        <f>(E79-E78)/E78*100</f>
+        <v>-13.415484771436736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>43</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>5</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>2018</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="0" t="n">
-        <v>4398542.44</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>154557.58</v>
-      </c>
-      <c r="G80" s="0" t="n">
-        <v>3.3946</v>
+      <c r="E80">
+        <v>4398542.4400000004</v>
+      </c>
+      <c r="F80">
+        <v>154557.57999999999</v>
+      </c>
+      <c r="G80">
+        <v>3.3946000000000001</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>44</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>5</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>2018</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="0" t="n">
-        <v>4521560.1</v>
-      </c>
-      <c r="F81" s="0" t="n">
+      <c r="E81">
+        <v>4521560.0999999996</v>
+      </c>
+      <c r="F81">
         <v>155374.84</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="G81">
         <v>3.3222</v>
       </c>
-      <c r="H81" s="2" t="n">
-        <f aca="false">E81/E80*100</f>
-        <v>102.796782381393</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="H81" s="2">
+        <f>E81/E80*100</f>
+        <v>102.79678238139267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>45</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>5</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>2019</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="0" t="n">
-        <v>4623172.89</v>
-      </c>
-      <c r="F82" s="0" t="n">
+      <c r="E82">
+        <v>4623172.8899999997</v>
+      </c>
+      <c r="F82">
         <v>194774.68</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82">
         <v>4.0427</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>46</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>5</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>2019</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>4731736.58</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83">
         <v>113203.84</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83">
         <v>2.3365</v>
       </c>
-      <c r="H83" s="2" t="n">
-        <f aca="false">E83/E82*100</f>
-        <v>102.348250705372</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="H83" s="2">
+        <f>E83/E82*100</f>
+        <v>102.34825070537219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>47</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>5</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>2020</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>4675276.42</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84">
         <v>134131.65</v>
       </c>
-      <c r="G84" s="0" t="n">
-        <v>2.7889</v>
+      <c r="G84">
+        <v>2.7888999999999999</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>48</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>5</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>2020</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>3979907.1</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85">
         <v>710068.65</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85">
         <v>15.1401</v>
       </c>
-      <c r="H85" s="2" t="n">
-        <f aca="false">E85/E84*100</f>
-        <v>85.1266693660008</v>
-      </c>
-      <c r="I85" s="2" t="n">
-        <f aca="false">(E85-E84)/E84*100</f>
-        <v>-14.8733306339992</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="H85" s="2">
+        <f>E85/E84*100</f>
+        <v>85.126669366000826</v>
+      </c>
+      <c r="I85" s="2">
+        <f>(E85-E84)/E84*100</f>
+        <v>-14.873330633999174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>1</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>2018</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="0" t="n">
-        <v>7399521.36</v>
-      </c>
-      <c r="E95" s="0" t="n">
+      <c r="D95">
+        <v>7399521.3600000003</v>
+      </c>
+      <c r="E95">
         <v>461765.36</v>
       </c>
-      <c r="F95" s="0" t="n">
-        <v>5.8739</v>
-      </c>
-      <c r="N95" s="0" t="n">
+      <c r="F95">
+        <v>5.8738999999999999</v>
+      </c>
+      <c r="N95">
         <v>2018</v>
       </c>
-      <c r="O95" s="0" t="n">
+      <c r="O95">
         <v>2019</v>
       </c>
-      <c r="P95" s="0" t="n">
+      <c r="P95">
         <v>2020</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>2</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>2018</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="0" t="n">
-        <v>7575123.23</v>
-      </c>
-      <c r="E96" s="0" t="n">
+      <c r="D96">
+        <v>7575123.2300000004</v>
+      </c>
+      <c r="E96">
         <v>483326.69</v>
       </c>
-      <c r="F96" s="0" t="n">
-        <v>5.9978</v>
-      </c>
-      <c r="G96" s="2" t="n">
-        <f aca="false">D96/D95*100</f>
-        <v>102.373151741263</v>
-      </c>
-      <c r="K96" s="0" t="s">
+      <c r="F96">
+        <v>5.9977999999999998</v>
+      </c>
+      <c r="G96" s="2">
+        <f>D96/D95*100</f>
+        <v>102.37315174126344</v>
+      </c>
+      <c r="K96" t="s">
         <v>33</v>
       </c>
-      <c r="L96" s="0" t="s">
+      <c r="L96" t="s">
         <v>17</v>
       </c>
-      <c r="M96" s="0" t="s">
+      <c r="M96" t="s">
         <v>13</v>
       </c>
-      <c r="N96" s="0" t="n">
+      <c r="N96">
         <v>100.3</v>
       </c>
-      <c r="O96" s="0" t="n">
+      <c r="O96">
         <v>101.3</v>
       </c>
-      <c r="P96" s="0" t="n">
+      <c r="P96">
         <v>82.7</v>
       </c>
-      <c r="Q96" s="2" t="n">
-        <f aca="false">P96/O96*100</f>
-        <v>81.6386969397828</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="Q96" s="2">
+        <f>P96/O96*100</f>
+        <v>81.638696939782832</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>3</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>2019</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="0" t="n">
-        <v>7564646.77</v>
-      </c>
-      <c r="E97" s="0" t="n">
+      <c r="D97">
+        <v>7564646.7699999996</v>
+      </c>
+      <c r="E97">
         <v>470431.97</v>
       </c>
-      <c r="F97" s="0" t="n">
-        <v>5.8547</v>
+      <c r="F97">
+        <v>5.8547000000000002</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K97" s="0" t="s">
+      <c r="K97" t="s">
         <v>34</v>
       </c>
-      <c r="L97" s="0" t="s">
+      <c r="L97" t="s">
         <v>17</v>
       </c>
-      <c r="M97" s="0" t="s">
+      <c r="M97" t="s">
         <v>13</v>
       </c>
-      <c r="N97" s="0" t="n">
+      <c r="N97">
         <v>109.7</v>
       </c>
-      <c r="O97" s="0" t="n">
+      <c r="O97">
         <v>104.9</v>
       </c>
-      <c r="P97" s="0" t="n">
+      <c r="P97">
         <v>90.5</v>
       </c>
-      <c r="Q97" s="2" t="n">
-        <f aca="false">P97/O97*100</f>
-        <v>86.2726406101049</v>
-      </c>
-      <c r="R97" s="0" t="n">
-        <f aca="false">100-P97</f>
+      <c r="Q97" s="2">
+        <f>P97/O97*100</f>
+        <v>86.272640610104858</v>
+      </c>
+      <c r="R97">
+        <f>100-P97</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>4</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>2019</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>7931619.21</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>472947.46</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98">
         <v>5.6273</v>
       </c>
-      <c r="G98" s="2" t="n">
-        <f aca="false">D98/D97*100</f>
-        <v>104.851151033983</v>
+      <c r="G98" s="2">
+        <f>D98/D97*100</f>
+        <v>104.85115103398279</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R98" s="0" t="s">
+      <c r="R98" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>5</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>2020</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>8024637.99</v>
-      </c>
-      <c r="E99" s="0" t="n">
+      <c r="D99">
+        <v>8024637.9900000002</v>
+      </c>
+      <c r="E99">
         <v>476413.11</v>
       </c>
-      <c r="F99" s="0" t="n">
-        <v>5.6042</v>
+      <c r="F99">
+        <v>5.6041999999999996</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K99" s="0" t="s">
+      <c r="K99" t="s">
         <v>33</v>
       </c>
-      <c r="L99" s="0" t="s">
+      <c r="L99" t="s">
         <v>19</v>
       </c>
-      <c r="M99" s="0" t="s">
+      <c r="M99" t="s">
         <v>13</v>
       </c>
-      <c r="N99" s="0" t="n">
+      <c r="N99">
         <v>98.4</v>
       </c>
-      <c r="O99" s="0" t="n">
+      <c r="O99">
         <v>97.1</v>
       </c>
-      <c r="P99" s="0" t="n">
-        <v>80.9</v>
-      </c>
-      <c r="Q99" s="2" t="n">
-        <f aca="false">P99/O99*100</f>
-        <v>83.3161688980433</v>
-      </c>
-      <c r="R99" s="0" t="s">
+      <c r="P99">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Q99" s="2">
+        <f>P99/O99*100</f>
+        <v>83.316168898043259</v>
+      </c>
+      <c r="R99" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>6</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>2020</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>7495837.23</v>
-      </c>
-      <c r="E100" s="0" t="n">
+      <c r="D100">
+        <v>7495837.2300000004</v>
+      </c>
+      <c r="E100">
         <v>1315044.8</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100">
         <v>14.9252</v>
       </c>
-      <c r="G100" s="2" t="n">
-        <f aca="false">D100/D99*100</f>
-        <v>93.4102851660228</v>
-      </c>
-      <c r="H100" s="2" t="n">
-        <f aca="false">(D100-D99)/D99*100</f>
-        <v>-6.5897148339772</v>
-      </c>
-      <c r="K100" s="0" t="s">
+      <c r="G100" s="2">
+        <f>D100/D99*100</f>
+        <v>93.410285166022803</v>
+      </c>
+      <c r="H100" s="2">
+        <f>(D100-D99)/D99*100</f>
+        <v>-6.5897148339771991</v>
+      </c>
+      <c r="K100" t="s">
         <v>34</v>
       </c>
-      <c r="L100" s="0" t="s">
+      <c r="L100" t="s">
         <v>19</v>
       </c>
-      <c r="M100" s="0" t="s">
+      <c r="M100" t="s">
         <v>13</v>
       </c>
-      <c r="N100" s="0" t="n">
+      <c r="N100">
         <v>110.4</v>
       </c>
-      <c r="O100" s="2" t="n">
+      <c r="O100" s="2">
         <v>113</v>
       </c>
-      <c r="P100" s="0" t="n">
+      <c r="P100">
         <v>97.1</v>
       </c>
-      <c r="Q100" s="2" t="n">
-        <f aca="false">P100/O100*100</f>
-        <v>85.929203539823</v>
-      </c>
-      <c r="R100" s="0" t="n">
-        <f aca="false">100-P100</f>
-        <v>2.90000000000001</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q100" s="2">
+        <f>P100/O100*100</f>
+        <v>85.929203539823007</v>
+      </c>
+      <c r="R100">
+        <f>100-P100</f>
+        <v>2.9000000000000057</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R101" s="0" t="s">
+      <c r="R101" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>35</v>
       </c>
-      <c r="K102" s="0" t="s">
+      <c r="K102" t="s">
         <v>33</v>
       </c>
-      <c r="L102" s="0" t="s">
+      <c r="L102" t="s">
         <v>17</v>
       </c>
-      <c r="M102" s="0" t="s">
+      <c r="M102" t="s">
         <v>23</v>
       </c>
-      <c r="N102" s="0" t="n">
+      <c r="N102">
         <v>98.1</v>
       </c>
-      <c r="O102" s="0" t="n">
+      <c r="O102">
         <v>101.3</v>
       </c>
-      <c r="P102" s="0" t="n">
-        <v>80.9</v>
-      </c>
-      <c r="Q102" s="2" t="n">
-        <f aca="false">P102/O102*100</f>
-        <v>79.8617966436328</v>
-      </c>
-      <c r="R102" s="0" t="n">
-        <f aca="false">100-P102</f>
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K103" s="0" t="s">
+      <c r="P102">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Q102" s="2">
+        <f>P102/O102*100</f>
+        <v>79.861796643632772</v>
+      </c>
+      <c r="R102">
+        <f>100-P102</f>
+        <v>19.099999999999994</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
         <v>34</v>
       </c>
-      <c r="L103" s="0" t="s">
+      <c r="L103" t="s">
         <v>17</v>
       </c>
-      <c r="M103" s="0" t="s">
+      <c r="M103" t="s">
         <v>23</v>
       </c>
-      <c r="N103" s="0" t="n">
+      <c r="N103">
         <v>103.7</v>
       </c>
-      <c r="O103" s="0" t="n">
+      <c r="O103">
         <v>102.1</v>
       </c>
-      <c r="P103" s="0" t="n">
+      <c r="P103">
         <v>90.1</v>
       </c>
-      <c r="Q103" s="2" t="n">
-        <f aca="false">P103/O103*100</f>
-        <v>88.2468168462292</v>
-      </c>
-      <c r="R103" s="0" t="n">
-        <f aca="false">100-P103</f>
-        <v>9.90000000000001</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="Q103" s="2">
+        <f>P103/O103*100</f>
+        <v>88.24681684622918</v>
+      </c>
+      <c r="R103">
+        <f>100-P103</f>
+        <v>9.9000000000000057</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" t="s">
         <v>6</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" t="s">
         <v>7</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" t="s">
         <v>8</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R104" s="0" t="s">
+      <c r="R104" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>7</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>2018</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>1240010.45</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>46423.03</v>
       </c>
-      <c r="F105" s="0" t="n">
-        <v>3.6087</v>
-      </c>
-      <c r="K105" s="0" t="s">
+      <c r="F105">
+        <v>3.6086999999999998</v>
+      </c>
+      <c r="K105" t="s">
         <v>33</v>
       </c>
-      <c r="L105" s="0" t="s">
+      <c r="L105" t="s">
         <v>19</v>
       </c>
-      <c r="M105" s="0" t="s">
+      <c r="M105" t="s">
         <v>15</v>
       </c>
-      <c r="N105" s="0" t="n">
+      <c r="N105">
         <v>101.6</v>
       </c>
-      <c r="O105" s="0" t="n">
+      <c r="O105">
         <v>98.3</v>
       </c>
-      <c r="P105" s="0" t="n">
+      <c r="P105">
         <v>84.2</v>
       </c>
-      <c r="Q105" s="2" t="n">
-        <f aca="false">P105/O105*100</f>
-        <v>85.6561546286877</v>
-      </c>
-      <c r="R105" s="0" t="n">
-        <f aca="false">100-P105</f>
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="Q105" s="2">
+        <f>P105/O105*100</f>
+        <v>85.656154628687702</v>
+      </c>
+      <c r="R105">
+        <f>100-P105</f>
+        <v>15.799999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>8</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106">
         <v>2018</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>1368940.63</v>
       </c>
-      <c r="E106" s="0" t="n">
-        <v>75076.54</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>5.1991</v>
-      </c>
-      <c r="G106" s="2" t="n">
-        <f aca="false">D106/D105*100</f>
-        <v>110.397507537134</v>
-      </c>
-      <c r="K106" s="0" t="s">
+      <c r="E106">
+        <v>75076.539999999994</v>
+      </c>
+      <c r="F106">
+        <v>5.1990999999999996</v>
+      </c>
+      <c r="G106" s="2">
+        <f>D106/D105*100</f>
+        <v>110.39750753713406</v>
+      </c>
+      <c r="K106" t="s">
         <v>34</v>
       </c>
-      <c r="L106" s="0" t="s">
+      <c r="L106" t="s">
         <v>19</v>
       </c>
-      <c r="M106" s="0" t="s">
+      <c r="M106" t="s">
         <v>15</v>
       </c>
-      <c r="N106" s="0" t="n">
+      <c r="N106">
         <v>102.4</v>
       </c>
-      <c r="O106" s="0" t="n">
+      <c r="O106">
         <v>104.9</v>
       </c>
-      <c r="P106" s="0" t="n">
+      <c r="P106">
         <v>93.4</v>
       </c>
-      <c r="Q106" s="2" t="n">
-        <f aca="false">P106/O106*100</f>
-        <v>89.0371782650143</v>
-      </c>
-      <c r="R106" s="0" t="n">
-        <f aca="false">100-P106</f>
-        <v>6.59999999999999</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="Q106" s="2">
+        <f>P106/O106*100</f>
+        <v>89.037178265014305</v>
+      </c>
+      <c r="R106">
+        <f>100-P106</f>
+        <v>6.5999999999999943</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>9</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>2019</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>1358749.86</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>54757.17</v>
       </c>
-      <c r="F107" s="0" t="n">
-        <v>3.8739</v>
+      <c r="F107">
+        <v>3.8738999999999999</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>10</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108">
         <v>2019</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>1535720.5</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>51177.14</v>
       </c>
-      <c r="F108" s="0" t="n">
-        <v>3.225</v>
-      </c>
-      <c r="G108" s="2" t="n">
-        <f aca="false">D108/D107*100</f>
-        <v>113.024519465268</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="F108">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="G108" s="2">
+        <f>D108/D107*100</f>
+        <v>113.02451946526786</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>11</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109">
         <v>2020</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109">
         <v>1583655.89</v>
       </c>
-      <c r="E109" s="0" t="n">
-        <v>36436.59</v>
-      </c>
-      <c r="F109" s="0" t="n">
-        <v>2.249</v>
+      <c r="E109">
+        <v>36436.589999999997</v>
+      </c>
+      <c r="F109">
+        <v>2.2490000000000001</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>12</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110">
         <v>2020</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>1537553.21</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>225394.4</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110">
         <v>12.7851</v>
       </c>
-      <c r="G110" s="2" t="n">
-        <f aca="false">D110/D109*100</f>
-        <v>97.0888448500008</v>
-      </c>
-      <c r="H110" s="2" t="n">
-        <f aca="false">(D110-D109)/D109*100</f>
-        <v>-2.91115514999915</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="G110" s="2">
+        <f>D110/D109*100</f>
+        <v>97.088844850000839</v>
+      </c>
+      <c r="H110" s="2">
+        <f>(D110-D109)/D109*100</f>
+        <v>-2.9111551499991539</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>13</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115">
         <v>2018</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="0" t="n">
-        <v>6526996.95</v>
-      </c>
-      <c r="E115" s="0" t="n">
+      <c r="D115">
+        <v>6526996.9500000002</v>
+      </c>
+      <c r="E115">
         <v>441185.66</v>
       </c>
-      <c r="F115" s="0" t="n">
-        <v>6.3314</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="F115">
+        <v>6.3314000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>14</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116">
         <v>2018</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="0" t="n">
-        <v>6770788.48</v>
-      </c>
-      <c r="E116" s="0" t="n">
+      <c r="D116">
+        <v>6770788.4800000004</v>
+      </c>
+      <c r="E116">
         <v>408364.41</v>
       </c>
-      <c r="F116" s="0" t="n">
-        <v>5.6882</v>
-      </c>
-      <c r="G116" s="2" t="n">
-        <f aca="false">D116/D115*100</f>
-        <v>103.735125538859</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="F116">
+        <v>5.6882000000000001</v>
+      </c>
+      <c r="G116" s="2">
+        <f>D116/D115*100</f>
+        <v>103.73512553885904</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>15</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117">
         <v>2019</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="0" t="n">
-        <v>6809573.06</v>
-      </c>
-      <c r="E117" s="0" t="n">
+      <c r="D117">
+        <v>6809573.0599999996</v>
+      </c>
+      <c r="E117">
         <v>337591.48</v>
       </c>
-      <c r="F117" s="0" t="n">
-        <v>4.7234</v>
+      <c r="F117">
+        <v>4.7233999999999998</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>16</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118">
         <v>2019</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="0" t="n">
-        <v>6951932.69</v>
-      </c>
-      <c r="E118" s="0" t="n">
+      <c r="D118">
+        <v>6951932.6900000004</v>
+      </c>
+      <c r="E118">
         <v>403876.43</v>
       </c>
-      <c r="F118" s="0" t="n">
-        <v>5.4906</v>
-      </c>
-      <c r="G118" s="2" t="n">
-        <f aca="false">D118/D117*100</f>
-        <v>102.090580844726</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="F118">
+        <v>5.4905999999999997</v>
+      </c>
+      <c r="G118" s="2">
+        <f>D118/D117*100</f>
+        <v>102.09058084472626</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>17</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119">
         <v>2020</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119">
         <v>7260417.21</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119">
         <v>386797.79</v>
       </c>
-      <c r="F119" s="0" t="n">
-        <v>5.058</v>
+      <c r="F119">
+        <v>5.0579999999999998</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>18</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120">
         <v>2020</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="0" t="n">
-        <v>6541845.17</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>1266235.6</v>
-      </c>
-      <c r="F120" s="0" t="n">
-        <v>16.217</v>
-      </c>
-      <c r="G120" s="2" t="n">
-        <f aca="false">D120/D119*100</f>
-        <v>90.1028822557154</v>
-      </c>
-      <c r="H120" s="2" t="n">
-        <f aca="false">(D120-D119)/D119*100</f>
-        <v>-9.89711774428456</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="D120">
+        <v>6541845.1699999999</v>
+      </c>
+      <c r="E120">
+        <v>1266235.6000000001</v>
+      </c>
+      <c r="F120">
+        <v>16.216999999999999</v>
+      </c>
+      <c r="G120" s="2">
+        <f>D120/D119*100</f>
+        <v>90.102882255715443</v>
+      </c>
+      <c r="H120" s="2">
+        <f>(D120-D119)/D119*100</f>
+        <v>-9.8971177442845608</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>4</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" t="s">
         <v>7</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>19</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125">
         <v>2018</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125">
         <v>1158192.3</v>
       </c>
-      <c r="E125" s="0" t="n">
-        <v>33968.05</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>2.8493</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="E125">
+        <v>33968.050000000003</v>
+      </c>
+      <c r="F125">
+        <v>2.8492999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>20</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126">
         <v>2018</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126">
         <v>1270004.92</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126">
         <v>53048.66</v>
       </c>
-      <c r="F126" s="0" t="n">
-        <v>4.0096</v>
-      </c>
-      <c r="G126" s="2" t="n">
-        <f aca="false">D126/D125*100</f>
-        <v>109.654063491874</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="F126">
+        <v>4.0095999999999998</v>
+      </c>
+      <c r="G126" s="2">
+        <f>D126/D125*100</f>
+        <v>109.65406349187434</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>21</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127">
         <v>2019</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127">
         <v>1308705.31</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127">
         <v>72211.86</v>
       </c>
-      <c r="F127" s="0" t="n">
-        <v>5.2293</v>
+      <c r="F127">
+        <v>5.2293000000000003</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>22</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128">
         <v>2019</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128">
         <v>1373220.83</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128">
         <v>47910.15</v>
       </c>
-      <c r="F128" s="0" t="n">
-        <v>3.3713</v>
-      </c>
-      <c r="G128" s="2" t="n">
-        <f aca="false">D128/D127*100</f>
-        <v>104.929720962162</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+      <c r="F128">
+        <v>3.3713000000000002</v>
+      </c>
+      <c r="G128" s="2">
+        <f>D128/D127*100</f>
+        <v>104.92972096216222</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>23</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129">
         <v>2020</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129">
         <v>1446140.63</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129">
         <v>34717.82</v>
       </c>
-      <c r="F129" s="0" t="n">
-        <v>2.3444</v>
+      <c r="F129">
+        <v>2.3443999999999998</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>24</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130">
         <v>2020</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="0" t="n">
-        <v>1308927.39</v>
-      </c>
-      <c r="E130" s="0" t="n">
+      <c r="D130">
+        <v>1308927.3899999999</v>
+      </c>
+      <c r="E130">
         <v>169363.53</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130">
         <v>11.4567</v>
       </c>
-      <c r="G130" s="2" t="n">
-        <f aca="false">D130/D129*100</f>
-        <v>90.5117637141555</v>
-      </c>
-      <c r="H130" s="2" t="n">
-        <f aca="false">(D130-D129)/D129*100</f>
-        <v>-9.48823628584448</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="G130" s="2">
+        <f>D130/D129*100</f>
+        <v>90.511763714155506</v>
+      </c>
+      <c r="H130" s="2">
+        <f>(D130-D129)/D129*100</f>
+        <v>-9.4882362858444829</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>4</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" t="s">
         <v>6</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E134" t="s">
         <v>7</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F134" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>25</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135">
         <v>2018</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="0" t="n">
-        <v>7888339.9</v>
-      </c>
-      <c r="E135" s="0" t="n">
+      <c r="D135">
+        <v>7888339.9000000004</v>
+      </c>
+      <c r="E135">
         <v>351589.85</v>
       </c>
-      <c r="F135" s="0" t="n">
-        <v>4.2669</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+      <c r="F135">
+        <v>4.2668999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>26</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136">
         <v>2018</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="0" t="n">
-        <v>8017606.82</v>
-      </c>
-      <c r="E136" s="0" t="n">
+      <c r="D136">
+        <v>8017606.8200000003</v>
+      </c>
+      <c r="E136">
         <v>209964.86</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136">
         <v>2.552</v>
       </c>
-      <c r="G136" s="2" t="n">
-        <f aca="false">D136/D135*100</f>
-        <v>101.638708798539</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+      <c r="G136" s="2">
+        <f>D136/D135*100</f>
+        <v>101.63870879853947</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>27</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137">
         <v>2019</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="0" t="n">
-        <v>8057797.22</v>
-      </c>
-      <c r="E137" s="0" t="n">
+      <c r="D137">
+        <v>8057797.2199999997</v>
+      </c>
+      <c r="E137">
         <v>330749.63</v>
       </c>
-      <c r="F137" s="0" t="n">
-        <v>3.9429</v>
+      <c r="F137">
+        <v>3.9428999999999998</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>28</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138">
         <v>2019</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="0" t="n">
-        <v>7920433.95</v>
-      </c>
-      <c r="E138" s="0" t="n">
+      <c r="D138">
+        <v>7920433.9500000002</v>
+      </c>
+      <c r="E138">
         <v>174285.27</v>
       </c>
-      <c r="F138" s="0" t="n">
-        <v>2.1531</v>
-      </c>
-      <c r="G138" s="2" t="n">
-        <f aca="false">D138/D137*100</f>
-        <v>98.2952751695084</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+      <c r="F138">
+        <v>2.1530999999999998</v>
+      </c>
+      <c r="G138" s="2">
+        <f>D138/D137*100</f>
+        <v>98.295275169508429</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>29</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139">
         <v>2020</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" t="s">
         <v>9</v>
       </c>
-      <c r="D139" s="0" t="n">
-        <v>7892434.41</v>
-      </c>
-      <c r="E139" s="0" t="n">
-        <v>271447.21</v>
-      </c>
-      <c r="F139" s="0" t="n">
-        <v>3.325</v>
+      <c r="D139">
+        <v>7892434.4100000001</v>
+      </c>
+      <c r="E139">
+        <v>271447.21000000002</v>
+      </c>
+      <c r="F139">
+        <v>3.3250000000000002</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>30</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140">
         <v>2020</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="0" t="n">
-        <v>6642536.17</v>
-      </c>
-      <c r="E140" s="0" t="n">
+      <c r="D140">
+        <v>6642536.1699999999</v>
+      </c>
+      <c r="E140">
         <v>855452.75</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140">
         <v>11.4091</v>
       </c>
-      <c r="G140" s="2" t="n">
-        <f aca="false">D140/D139*100</f>
-        <v>84.163337000098</v>
-      </c>
-      <c r="H140" s="2" t="n">
-        <f aca="false">(D140-D139)/D139*100</f>
-        <v>-15.836662999902</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="G140" s="2">
+        <f>D140/D139*100</f>
+        <v>84.163337000098053</v>
+      </c>
+      <c r="H140" s="2">
+        <f>(D140-D139)/D139*100</f>
+        <v>-15.836662999901954</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" t="s">
         <v>4</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" t="s">
         <v>5</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" t="s">
         <v>6</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" t="s">
         <v>7</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F144" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>31</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145">
         <v>2018</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145">
         <v>3709419.21</v>
       </c>
-      <c r="E145" s="0" t="n">
+      <c r="E145">
         <v>89416.55</v>
       </c>
-      <c r="F145" s="0" t="n">
-        <v>2.3538</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+      <c r="F145">
+        <v>2.3538000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>32</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146">
         <v>2018</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146">
         <v>3651196.95</v>
       </c>
-      <c r="E146" s="0" t="n">
+      <c r="E146">
         <v>110723.73</v>
       </c>
-      <c r="F146" s="0" t="n">
-        <v>2.9433</v>
-      </c>
-      <c r="G146" s="2" t="n">
-        <f aca="false">D146/D145*100</f>
-        <v>98.4304211332318</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+      <c r="F146">
+        <v>2.9432999999999998</v>
+      </c>
+      <c r="G146" s="2">
+        <f>D146/D145*100</f>
+        <v>98.430421133231803</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>33</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147">
         <v>2019</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" t="s">
         <v>9</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147">
         <v>3793942</v>
       </c>
-      <c r="E147" s="0" t="n">
+      <c r="E147">
         <v>91220.02</v>
       </c>
-      <c r="F147" s="0" t="n">
-        <v>2.3479</v>
+      <c r="F147">
+        <v>2.3479000000000001</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>34</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148">
         <v>2019</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148">
         <v>3684940.02</v>
       </c>
-      <c r="E148" s="0" t="n">
+      <c r="E148">
         <v>83053.81</v>
       </c>
-      <c r="F148" s="0" t="n">
-        <v>2.2042</v>
-      </c>
-      <c r="G148" s="2" t="n">
-        <f aca="false">D148/D147*100</f>
-        <v>97.1269465901166</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+      <c r="F148">
+        <v>2.2042000000000002</v>
+      </c>
+      <c r="G148" s="2">
+        <f>D148/D147*100</f>
+        <v>97.12694659011656</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>35</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149">
         <v>2020</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149">
         <v>3723525.44</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E149">
         <v>88111.28</v>
       </c>
-      <c r="F149" s="0" t="n">
-        <v>2.3116</v>
+      <c r="F149">
+        <v>2.3115999999999999</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>36</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150">
         <v>2020</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150">
         <v>3012724.99</v>
       </c>
-      <c r="E150" s="0" t="n">
+      <c r="E150">
         <v>440249.89</v>
       </c>
-      <c r="F150" s="0" t="n">
+      <c r="F150">
         <v>12.7499</v>
       </c>
-      <c r="G150" s="2" t="n">
-        <f aca="false">D150/D149*100</f>
-        <v>80.9105520707816</v>
-      </c>
-      <c r="H150" s="2" t="n">
-        <f aca="false">(D150-D149)/D149*100</f>
-        <v>-19.0894479292184</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="G150" s="2">
+        <f>D150/D149*100</f>
+        <v>80.91055207078162</v>
+      </c>
+      <c r="H150" s="2">
+        <f>(D150-D149)/D149*100</f>
+        <v>-19.089447929218384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" t="s">
         <v>5</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" t="s">
         <v>6</v>
       </c>
-      <c r="E154" s="0" t="s">
+      <c r="E154" t="s">
         <v>7</v>
       </c>
-      <c r="F154" s="0" t="s">
+      <c r="F154" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>37</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155">
         <v>2018</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155">
         <v>5076205.63</v>
       </c>
-      <c r="E155" s="0" t="n">
+      <c r="E155">
         <v>269360.68</v>
       </c>
-      <c r="F155" s="0" t="n">
-        <v>5.039</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+      <c r="F155">
+        <v>5.0389999999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>38</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156">
         <v>2018</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" t="s">
         <v>11</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156">
         <v>4977378.26</v>
       </c>
-      <c r="E156" s="0" t="n">
+      <c r="E156">
         <v>268695.63</v>
       </c>
-      <c r="F156" s="0" t="n">
-        <v>5.1218</v>
-      </c>
-      <c r="G156" s="2" t="n">
-        <f aca="false">D156/D155*100</f>
-        <v>98.0531251646715</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="n">
+      <c r="F156">
+        <v>5.1218000000000004</v>
+      </c>
+      <c r="G156" s="2">
+        <f>D156/D155*100</f>
+        <v>98.053125164671471</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>39</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157">
         <v>2019</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" t="s">
         <v>9</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157">
         <v>5052356.07</v>
       </c>
-      <c r="E157" s="0" t="n">
+      <c r="E157">
         <v>256315.38</v>
       </c>
-      <c r="F157" s="0" t="n">
-        <v>4.8282</v>
+      <c r="F157">
+        <v>4.8281999999999998</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>40</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158">
         <v>2019</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158">
         <v>5117792.34</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E158">
         <v>238724.32</v>
       </c>
-      <c r="F158" s="0" t="n">
-        <v>4.4567</v>
-      </c>
-      <c r="G158" s="2" t="n">
-        <f aca="false">D158/D157*100</f>
-        <v>101.295163466181</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="n">
+      <c r="F158">
+        <v>4.4566999999999997</v>
+      </c>
+      <c r="G158" s="2">
+        <f>D158/D157*100</f>
+        <v>101.29516346618064</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>41</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159">
         <v>2020</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159">
         <v>5114298.07</v>
       </c>
-      <c r="E159" s="0" t="n">
+      <c r="E159">
         <v>314408.88</v>
       </c>
-      <c r="F159" s="0" t="n">
-        <v>5.7916</v>
+      <c r="F159">
+        <v>5.7915999999999999</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="n">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>42</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160">
         <v>2020</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160">
         <v>4136797.89</v>
       </c>
-      <c r="E160" s="0" t="n">
+      <c r="E160">
         <v>812345.06</v>
       </c>
-      <c r="F160" s="0" t="n">
-        <v>16.4139</v>
-      </c>
-      <c r="G160" s="2" t="n">
-        <f aca="false">D160/D159*100</f>
-        <v>80.8869141645473</v>
-      </c>
-      <c r="H160" s="2" t="n">
-        <f aca="false">(D160-D159)/D159*100</f>
-        <v>-19.1130858354527</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="F160">
+        <v>16.413900000000002</v>
+      </c>
+      <c r="G160" s="2">
+        <f>D160/D159*100</f>
+        <v>80.886914164547321</v>
+      </c>
+      <c r="H160" s="2">
+        <f>(D160-D159)/D159*100</f>
+        <v>-19.113085835452686</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" t="s">
         <v>5</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" t="s">
         <v>6</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="E164" t="s">
         <v>7</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="F164" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>43</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165">
         <v>2018</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="0" t="n">
+      <c r="D165">
         <v>3240350.13</v>
       </c>
-      <c r="E165" s="0" t="n">
+      <c r="E165">
         <v>120589.53</v>
       </c>
-      <c r="F165" s="0" t="n">
-        <v>3.588</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
+      <c r="F165">
+        <v>3.5880000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>44</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166">
         <v>2018</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="0" t="n">
+      <c r="D166">
         <v>3251555.18</v>
       </c>
-      <c r="E166" s="0" t="n">
+      <c r="E166">
         <v>102326.17</v>
       </c>
-      <c r="F166" s="0" t="n">
-        <v>3.051</v>
-      </c>
-      <c r="G166" s="2" t="n">
-        <f aca="false">D166/D165*100</f>
-        <v>100.345797508</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="n">
+      <c r="F166">
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="G166" s="2">
+        <f>D166/D165*100</f>
+        <v>100.34579750799955</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>45</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167">
         <v>2019</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" t="s">
         <v>9</v>
       </c>
-      <c r="D167" s="0" t="n">
+      <c r="D167">
         <v>3314467.57</v>
       </c>
-      <c r="E167" s="0" t="n">
+      <c r="E167">
         <v>122562.81</v>
       </c>
-      <c r="F167" s="0" t="n">
-        <v>3.566</v>
+      <c r="F167">
+        <v>3.5659999999999998</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="n">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>46</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168">
         <v>2019</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="0" t="n">
+      <c r="D168">
         <v>3358515.75</v>
       </c>
-      <c r="E168" s="0" t="n">
+      <c r="E168">
         <v>65293.69</v>
       </c>
-      <c r="F168" s="0" t="n">
+      <c r="F168">
         <v>1.907</v>
       </c>
-      <c r="G168" s="2" t="n">
-        <f aca="false">D168/D167*100</f>
-        <v>101.328966993031</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="n">
+      <c r="G168" s="2">
+        <f>D168/D167*100</f>
+        <v>101.32896699303051</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>47</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169">
         <v>2020</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" t="s">
         <v>9</v>
       </c>
-      <c r="D169" s="0" t="n">
+      <c r="D169">
         <v>3229135.78</v>
       </c>
-      <c r="E169" s="0" t="n">
+      <c r="E169">
         <v>99413.83</v>
       </c>
-      <c r="F169" s="0" t="n">
-        <v>2.9867</v>
+      <c r="F169">
+        <v>2.9866999999999999</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="n">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>48</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170">
         <v>2020</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="0" t="n">
+      <c r="D170">
         <v>2670979.71</v>
       </c>
-      <c r="E170" s="0" t="n">
+      <c r="E170">
         <v>540705.13</v>
       </c>
-      <c r="F170" s="0" t="n">
-        <v>16.8356</v>
-      </c>
-      <c r="G170" s="2" t="n">
-        <f aca="false">D170/D169*100</f>
-        <v>82.7150015351786</v>
-      </c>
-      <c r="H170" s="2" t="n">
-        <f aca="false">(D170-D169)/D169*100</f>
-        <v>-17.2849984648214</v>
+      <c r="F170">
+        <v>16.835599999999999</v>
+      </c>
+      <c r="G170" s="2">
+        <f>D170/D169*100</f>
+        <v>82.715001535178558</v>
+      </c>
+      <c r="H170" s="2">
+        <f>(D170-D169)/D169*100</f>
+        <v>-17.284998464821442</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>